--- a/tut05/output/0501EE21.xlsx
+++ b/tut05/output/0501EE21.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.836734693877551</v>
+        <v>7.84</v>
       </c>
       <c r="C6" t="n">
-        <v>7.704545454545454</v>
+        <v>7.7</v>
       </c>
       <c r="D6" t="n">
-        <v>7.456521739130435</v>
+        <v>7.46</v>
       </c>
       <c r="E6" t="n">
-        <v>8.391304347826088</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>7.923076923076923</v>
+        <v>7.92</v>
       </c>
       <c r="G6" t="n">
         <v>8.35</v>
       </c>
       <c r="H6" t="n">
-        <v>9.325581395348838</v>
+        <v>9.33</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.836734693877551</v>
+        <v>7.84</v>
       </c>
       <c r="C8" t="n">
-        <v>7.774193548387097</v>
+        <v>7.77</v>
       </c>
       <c r="D8" t="n">
-        <v>7.669064748201439</v>
+        <v>7.67</v>
       </c>
       <c r="E8" t="n">
-        <v>7.848648648648648</v>
+        <v>7.85</v>
       </c>
       <c r="F8" t="n">
-        <v>7.861607142857143</v>
+        <v>7.86</v>
       </c>
       <c r="G8" t="n">
-        <v>7.935606060606061</v>
+        <v>7.94</v>
       </c>
       <c r="H8" t="n">
-        <v>8.130293159609121</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.226086956521739</v>
+        <v>8.23</v>
       </c>
     </row>
   </sheetData>
